--- a/Membership/Create Prorate Setup/Main.rvl.xlsx
+++ b/Membership/Create Prorate Setup/Main.rvl.xlsx
@@ -10,12 +10,13 @@
     <sheet name="JanProrate" sheetId="2" r:id="rId4"/>
     <sheet name="NoProrate" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="157">
   <si>
     <t>Flow</t>
   </si>
@@ -363,6 +364,129 @@
   </si>
   <si>
     <t>ux_ClearLookupField</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Membership\ProrateData.xls</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Membership\MembershipData.xls</t>
+  </si>
+  <si>
+    <t>Installments</t>
+  </si>
+  <si>
+    <t>***Test creates all Installments in MembershipData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the installment to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the installment is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the installment using the data in the spreadsheet.</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Create Installment, if it is not already created</t>
+  </si>
+  <si>
+    <t>Check if Installment exists before creating new setup</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>Create Installment</t>
+  </si>
+  <si>
+    <t>Installment does not exist. Create Installment.</t>
+  </si>
+  <si>
+    <t>Installment:</t>
+  </si>
+  <si>
+    <t>Installment_Name</t>
+  </si>
+  <si>
+    <t>Installment_NumberofInstallments</t>
+  </si>
+  <si>
+    <t>Number of Installments</t>
+  </si>
+  <si>
+    <t>Installment_NumberofMonths</t>
+  </si>
+  <si>
+    <t>Number of Months</t>
+  </si>
+  <si>
+    <t>Installment_BillFrequency</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Validate that the installment was created.</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>***Test creates all prorate setup in ProrateData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the prorate to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the prorate is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the prorate using the data in the spreadsheet.</t>
+  </si>
+  <si>
+    <t>***Play JanProrate tab to create Jan Prorate.</t>
+  </si>
+  <si>
+    <t>*****Play JanProrate tab to create Jan Prorate.*****</t>
+  </si>
+  <si>
+    <t>*****Play NoProrate tab to create No Prorate.*****</t>
+  </si>
+  <si>
+    <t>Check if TUXr Jan Prorate exists.</t>
+  </si>
+  <si>
+    <t>TUXr Jan Prorate does not exist. Create TUXr Jan Prorate.</t>
+  </si>
+  <si>
+    <t>Validate the Prorate was created.</t>
+  </si>
+  <si>
+    <t>Check if TUXr No Prorate exists.</t>
+  </si>
+  <si>
+    <t>TUXr No Prorate does not exist. Create TUXr No Prorate.</t>
   </si>
 </sst>
 </file>
@@ -383,7 +507,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="601">
+  <borders count="1200">
     <border>
       <left/>
       <right/>
@@ -991,11 +1115,610 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="601">
+  <cellXfs count="1200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1597,6 +2320,605 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="598" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="599" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="600" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="601" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="602" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="603" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="604" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="605" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="606" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="607" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="608" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="609" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="610" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="611" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="612" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="613" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="614" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="615" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="616" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="617" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="618" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="619" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="620" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="621" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="622" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="623" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="624" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="625" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="626" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="627" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="628" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="629" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="630" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="631" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="632" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="633" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="634" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="635" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="636" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="637" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="638" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="639" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="640" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="641" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="642" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="643" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="644" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="645" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="646" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="647" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="648" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="649" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="650" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="651" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="652" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="653" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="654" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="655" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="656" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="657" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="658" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="659" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="660" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="661" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="662" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="663" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="664" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="665" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="666" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="667" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="668" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="669" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="670" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="671" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="672" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="673" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="674" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="675" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="676" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="677" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="678" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="679" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="680" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="681" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="682" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="683" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="684" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="685" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="686" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="687" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="688" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="689" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="690" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="691" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="692" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="693" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="694" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="695" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="696" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="697" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="698" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="699" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="700" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="701" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="702" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="703" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="704" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="705" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="706" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="707" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="708" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="709" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="710" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="711" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="712" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="713" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="714" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="715" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="716" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="717" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="718" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="719" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="720" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="721" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="722" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="723" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="724" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="725" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="726" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="727" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="728" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="729" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="730" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="731" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="732" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="733" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="734" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="735" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="736" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="737" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="738" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="739" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="740" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="741" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="742" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="743" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="744" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="745" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="746" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="747" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="748" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="749" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="750" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="751" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="752" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="753" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="754" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="755" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="756" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="757" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="758" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="759" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="760" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="761" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="762" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="763" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="764" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="765" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="766" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="767" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="768" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="769" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="770" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="771" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="772" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="773" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="774" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="775" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="776" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="777" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="778" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="779" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="780" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="781" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="782" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="783" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="784" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="785" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="786" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="787" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="788" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="789" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="790" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="791" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="792" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="793" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="794" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="795" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="796" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="797" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="798" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="799" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="800" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="801" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="802" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="803" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="804" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="805" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="806" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="807" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="808" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="809" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="810" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="811" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="812" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="813" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="814" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="815" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="816" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="817" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="818" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="819" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="820" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="821" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="822" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="823" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="824" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="825" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="826" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="827" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="828" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="829" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="830" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="831" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="832" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="833" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="834" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="835" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="836" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="837" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="838" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="839" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="840" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="841" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="842" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="843" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="844" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="845" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="846" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="847" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="848" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="849" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="850" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="851" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="852" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="853" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="854" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="855" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="856" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="857" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="858" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="859" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="860" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="861" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="862" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="863" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="864" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="865" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="866" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="867" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="868" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="869" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="870" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="871" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="872" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="873" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="874" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="875" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="876" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="877" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="878" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="879" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="880" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="881" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="882" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="883" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="884" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="885" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="886" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="887" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="888" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="889" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="890" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="891" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="892" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="893" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="894" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="895" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="896" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="897" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="898" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="899" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="900" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="901" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="902" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="903" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="904" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="905" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="906" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="907" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="908" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="909" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="910" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="911" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="912" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="913" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="914" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="915" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="916" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="917" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="918" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="919" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="920" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="921" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="922" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="923" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="924" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="925" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="926" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="927" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="928" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="929" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="930" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="931" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="932" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="933" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="934" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="935" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="936" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="937" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="938" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="939" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="940" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="941" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="942" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="943" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="944" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="945" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="946" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="947" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="948" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="949" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="950" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="951" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="952" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="953" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="954" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="955" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="956" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="957" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="958" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="959" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="960" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="961" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="962" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="963" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="964" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="965" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="966" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="967" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="968" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="969" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="970" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="971" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="972" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="973" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="974" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="975" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="976" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="977" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="978" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="979" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="980" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="981" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="982" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="983" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="984" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="985" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="986" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="987" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="988" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="989" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="990" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="991" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="992" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="993" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="994" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="995" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="996" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="997" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="998" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="999" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1000" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1001" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1002" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1003" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1004" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1005" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1006" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1007" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1008" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1009" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1010" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1011" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1012" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1013" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1014" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1015" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1016" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1017" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1018" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1019" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1020" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1021" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1022" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1023" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1024" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1025" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1026" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1027" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1028" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1029" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1030" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1031" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1032" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1033" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1034" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1035" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1036" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1037" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1038" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1039" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1040" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1041" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1042" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1043" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1044" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1045" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1046" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1047" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1048" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1049" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1050" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1051" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1052" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1053" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1054" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1055" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1056" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1057" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1058" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1059" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1060" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1061" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1062" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1063" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1064" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1065" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1066" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1067" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1068" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1069" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1070" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1071" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1072" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1073" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1074" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1075" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1076" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1077" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1078" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1079" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1080" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1081" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1082" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1083" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1084" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1085" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1086" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1087" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1088" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1089" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1090" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1091" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1092" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1093" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1094" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1095" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1096" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1097" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1098" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1099" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1100" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1101" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1102" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1103" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1104" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1105" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1106" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1107" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1108" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1109" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1110" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1111" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1112" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1113" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1114" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1115" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1116" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1117" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1118" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1119" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1120" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1121" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1122" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1123" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1124" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1125" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1126" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1127" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1128" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1129" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1130" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1131" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1132" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1133" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1134" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1135" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1136" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1137" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1138" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1139" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1140" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1141" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1142" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1143" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1144" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1145" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1146" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1147" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1148" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1149" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1150" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1151" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1152" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1153" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1154" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1155" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1156" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1157" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1158" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1159" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1160" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1161" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1162" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1163" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1165" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1166" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1167" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1168" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1169" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1170" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1171" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1172" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1173" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1174" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1175" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1176" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1177" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1190" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1191" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1199" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1606,7 +2928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -1646,257 +2968,460 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="1176"/>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="597"/>
+      <c r="A3" s="1175"/>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="596"/>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>112</v>
-      </c>
+      <c r="A4" s="1177"/>
     </row>
     <row r="5">
-      <c r="A5" s="598"/>
+      <c r="A5" s="1172"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1171"/>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1170"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1169"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1168"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1167"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1174" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1173"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="597"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="596"/>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1179"/>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="598"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="97"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="105"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="112"/>
-    </row>
     <row r="18">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19">
-      <c r="A19" s="121"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="128"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20">
-      <c r="A20" s="129"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="136"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21">
-      <c r="A21" s="137"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="144"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22">
-      <c r="A22" s="145"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="152"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23">
-      <c r="A23" s="153"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="160"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="81"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="96"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="97"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="104"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="113"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="120"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="121"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="128"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="129"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="136"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="137"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="144"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="145"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="152"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="153"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="160"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1904,7 +3429,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H76"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -1963,7 +3488,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -2053,7 +3578,7 @@
       <c r="A10" s="527"/>
     </row>
     <row r="11">
-      <c r="A11" s="525" t="s">
+      <c r="A11" s="1166" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
@@ -2073,6 +3598,9 @@
       </c>
       <c r="G11" t="s">
         <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2104,7 +3632,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -2213,126 +3741,126 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="516"/>
+      <c r="A20" s="515"/>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="515"/>
+      <c r="A21" s="514"/>
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="514"/>
+      <c r="A22" s="513"/>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="513"/>
+      <c r="A23" s="512" t="s">
+        <v>72</v>
+      </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="511"/>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="510"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="509" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="508"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="507" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1181"/>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="512" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="511"/>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="510"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="509" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="508"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="507" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
+      <c r="G29" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="30">
@@ -2701,223 +4229,265 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="483"/>
+      <c r="A53" s="1191"/>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
       <c r="G53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1192"/>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="482" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1195"/>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="482" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="481"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="169"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="171"/>
-      <c r="D56" s="172"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="174"/>
-      <c r="G56" s="175"/>
-      <c r="H56" s="176"/>
-    </row>
     <row r="57">
-      <c r="A57" s="177"/>
-      <c r="B57" s="178"/>
-      <c r="C57" s="179"/>
-      <c r="D57" s="180"/>
-      <c r="E57" s="181"/>
-      <c r="F57" s="182"/>
-      <c r="G57" s="183"/>
-      <c r="H57" s="184"/>
+      <c r="A57" s="481"/>
     </row>
     <row r="58">
-      <c r="A58" s="185"/>
-      <c r="B58" s="186"/>
-      <c r="C58" s="187"/>
-      <c r="D58" s="188"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="190"/>
-      <c r="G58" s="191"/>
-      <c r="H58" s="192"/>
+      <c r="A58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="173"/>
+      <c r="F58" s="174"/>
+      <c r="G58" s="175"/>
+      <c r="H58" s="176"/>
     </row>
     <row r="59">
-      <c r="A59" s="193"/>
-      <c r="B59" s="194"/>
-      <c r="C59" s="195"/>
-      <c r="D59" s="196"/>
-      <c r="E59" s="197"/>
-      <c r="F59" s="198"/>
-      <c r="G59" s="199"/>
-      <c r="H59" s="200"/>
+      <c r="A59" s="177"/>
+      <c r="B59" s="178"/>
+      <c r="C59" s="179"/>
+      <c r="D59" s="180"/>
+      <c r="E59" s="181"/>
+      <c r="F59" s="182"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="184"/>
     </row>
     <row r="60">
-      <c r="A60" s="201"/>
-      <c r="B60" s="202"/>
-      <c r="C60" s="203"/>
-      <c r="D60" s="204"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="206"/>
-      <c r="G60" s="207"/>
-      <c r="H60" s="208"/>
+      <c r="A60" s="185"/>
+      <c r="B60" s="186"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="188"/>
+      <c r="E60" s="189"/>
+      <c r="F60" s="190"/>
+      <c r="G60" s="191"/>
+      <c r="H60" s="192"/>
     </row>
     <row r="61">
-      <c r="A61" s="209"/>
-      <c r="B61" s="210"/>
-      <c r="C61" s="211"/>
-      <c r="D61" s="212"/>
-      <c r="E61" s="213"/>
-      <c r="F61" s="214"/>
-      <c r="G61" s="215"/>
-      <c r="H61" s="216"/>
+      <c r="A61" s="193"/>
+      <c r="B61" s="194"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="197"/>
+      <c r="F61" s="198"/>
+      <c r="G61" s="199"/>
+      <c r="H61" s="200"/>
     </row>
     <row r="62">
-      <c r="A62" s="217"/>
-      <c r="B62" s="218"/>
-      <c r="C62" s="219"/>
-      <c r="D62" s="220"/>
-      <c r="E62" s="221"/>
-      <c r="F62" s="222"/>
-      <c r="G62" s="223"/>
-      <c r="H62" s="224"/>
+      <c r="A62" s="201"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="203"/>
+      <c r="D62" s="204"/>
+      <c r="E62" s="205"/>
+      <c r="F62" s="206"/>
+      <c r="G62" s="207"/>
+      <c r="H62" s="208"/>
     </row>
     <row r="63">
-      <c r="A63" s="225"/>
-      <c r="B63" s="226"/>
-      <c r="C63" s="227"/>
-      <c r="D63" s="228"/>
-      <c r="E63" s="229"/>
-      <c r="F63" s="230"/>
-      <c r="G63" s="231"/>
-      <c r="H63" s="232"/>
+      <c r="A63" s="209"/>
+      <c r="B63" s="210"/>
+      <c r="C63" s="211"/>
+      <c r="D63" s="212"/>
+      <c r="E63" s="213"/>
+      <c r="F63" s="214"/>
+      <c r="G63" s="215"/>
+      <c r="H63" s="216"/>
     </row>
     <row r="64">
-      <c r="A64" s="233"/>
-      <c r="B64" s="234"/>
-      <c r="C64" s="235"/>
-      <c r="D64" s="236"/>
-      <c r="E64" s="237"/>
-      <c r="F64" s="238"/>
-      <c r="G64" s="239"/>
-      <c r="H64" s="240"/>
+      <c r="A64" s="217"/>
+      <c r="B64" s="218"/>
+      <c r="C64" s="219"/>
+      <c r="D64" s="220"/>
+      <c r="E64" s="221"/>
+      <c r="F64" s="222"/>
+      <c r="G64" s="223"/>
+      <c r="H64" s="224"/>
     </row>
     <row r="65">
-      <c r="A65" s="241"/>
-      <c r="B65" s="242"/>
-      <c r="C65" s="243"/>
-      <c r="D65" s="244"/>
-      <c r="E65" s="245"/>
-      <c r="F65" s="246"/>
-      <c r="G65" s="247"/>
-      <c r="H65" s="248"/>
+      <c r="A65" s="225"/>
+      <c r="B65" s="226"/>
+      <c r="C65" s="227"/>
+      <c r="D65" s="228"/>
+      <c r="E65" s="229"/>
+      <c r="F65" s="230"/>
+      <c r="G65" s="231"/>
+      <c r="H65" s="232"/>
     </row>
     <row r="66">
-      <c r="A66" s="249"/>
-      <c r="B66" s="250"/>
-      <c r="C66" s="251"/>
-      <c r="D66" s="252"/>
-      <c r="E66" s="253"/>
-      <c r="F66" s="254"/>
-      <c r="G66" s="255"/>
-      <c r="H66" s="256"/>
+      <c r="A66" s="233"/>
+      <c r="B66" s="234"/>
+      <c r="C66" s="235"/>
+      <c r="D66" s="236"/>
+      <c r="E66" s="237"/>
+      <c r="F66" s="238"/>
+      <c r="G66" s="239"/>
+      <c r="H66" s="240"/>
     </row>
     <row r="67">
-      <c r="A67" s="257"/>
-      <c r="B67" s="258"/>
-      <c r="C67" s="259"/>
-      <c r="D67" s="260"/>
-      <c r="E67" s="261"/>
-      <c r="F67" s="262"/>
-      <c r="G67" s="263"/>
-      <c r="H67" s="264"/>
+      <c r="A67" s="241"/>
+      <c r="B67" s="242"/>
+      <c r="C67" s="243"/>
+      <c r="D67" s="244"/>
+      <c r="E67" s="245"/>
+      <c r="F67" s="246"/>
+      <c r="G67" s="247"/>
+      <c r="H67" s="248"/>
     </row>
     <row r="68">
-      <c r="A68" s="265"/>
-      <c r="B68" s="266"/>
-      <c r="C68" s="267"/>
-      <c r="D68" s="268"/>
-      <c r="E68" s="269"/>
-      <c r="F68" s="270"/>
-      <c r="G68" s="271"/>
-      <c r="H68" s="272"/>
+      <c r="A68" s="249"/>
+      <c r="B68" s="250"/>
+      <c r="C68" s="251"/>
+      <c r="D68" s="252"/>
+      <c r="E68" s="253"/>
+      <c r="F68" s="254"/>
+      <c r="G68" s="255"/>
+      <c r="H68" s="256"/>
     </row>
     <row r="69">
-      <c r="A69" s="273"/>
-      <c r="B69" s="274"/>
-      <c r="C69" s="275"/>
-      <c r="D69" s="276"/>
-      <c r="E69" s="277"/>
-      <c r="F69" s="278"/>
-      <c r="G69" s="279"/>
-      <c r="H69" s="280"/>
+      <c r="A69" s="257"/>
+      <c r="B69" s="258"/>
+      <c r="C69" s="259"/>
+      <c r="D69" s="260"/>
+      <c r="E69" s="261"/>
+      <c r="F69" s="262"/>
+      <c r="G69" s="263"/>
+      <c r="H69" s="264"/>
     </row>
     <row r="70">
-      <c r="A70" s="281"/>
-      <c r="B70" s="282"/>
-      <c r="C70" s="283"/>
-      <c r="D70" s="284"/>
-      <c r="E70" s="285"/>
-      <c r="F70" s="286"/>
-      <c r="G70" s="287"/>
-      <c r="H70" s="288"/>
+      <c r="A70" s="265"/>
+      <c r="B70" s="266"/>
+      <c r="C70" s="267"/>
+      <c r="D70" s="268"/>
+      <c r="E70" s="269"/>
+      <c r="F70" s="270"/>
+      <c r="G70" s="271"/>
+      <c r="H70" s="272"/>
     </row>
     <row r="71">
-      <c r="A71" s="289"/>
-      <c r="B71" s="290"/>
-      <c r="C71" s="291"/>
-      <c r="D71" s="292"/>
-      <c r="E71" s="293"/>
-      <c r="F71" s="294"/>
-      <c r="G71" s="295"/>
-      <c r="H71" s="296"/>
+      <c r="A71" s="273"/>
+      <c r="B71" s="274"/>
+      <c r="C71" s="275"/>
+      <c r="D71" s="276"/>
+      <c r="E71" s="277"/>
+      <c r="F71" s="278"/>
+      <c r="G71" s="279"/>
+      <c r="H71" s="280"/>
     </row>
     <row r="72">
-      <c r="A72" s="297"/>
-      <c r="B72" s="298"/>
-      <c r="C72" s="299"/>
-      <c r="D72" s="300"/>
-      <c r="E72" s="301"/>
-      <c r="F72" s="302"/>
-      <c r="G72" s="303"/>
-      <c r="H72" s="304"/>
+      <c r="A72" s="281"/>
+      <c r="B72" s="282"/>
+      <c r="C72" s="283"/>
+      <c r="D72" s="284"/>
+      <c r="E72" s="285"/>
+      <c r="F72" s="286"/>
+      <c r="G72" s="287"/>
+      <c r="H72" s="288"/>
     </row>
     <row r="73">
-      <c r="A73" s="305"/>
-      <c r="B73" s="306"/>
-      <c r="C73" s="307"/>
-      <c r="D73" s="308"/>
-      <c r="E73" s="309"/>
-      <c r="F73" s="310"/>
-      <c r="G73" s="311"/>
-      <c r="H73" s="312"/>
+      <c r="A73" s="289"/>
+      <c r="B73" s="290"/>
+      <c r="C73" s="291"/>
+      <c r="D73" s="292"/>
+      <c r="E73" s="293"/>
+      <c r="F73" s="294"/>
+      <c r="G73" s="295"/>
+      <c r="H73" s="296"/>
     </row>
     <row r="74">
-      <c r="A74" s="313"/>
-      <c r="B74" s="314"/>
-      <c r="C74" s="315"/>
-      <c r="D74" s="316"/>
-      <c r="E74" s="317"/>
-      <c r="F74" s="318"/>
-      <c r="G74" s="319"/>
-      <c r="H74" s="320"/>
+      <c r="A74" s="297"/>
+      <c r="B74" s="298"/>
+      <c r="C74" s="299"/>
+      <c r="D74" s="300"/>
+      <c r="E74" s="301"/>
+      <c r="F74" s="302"/>
+      <c r="G74" s="303"/>
+      <c r="H74" s="304"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="305"/>
+      <c r="B75" s="306"/>
+      <c r="C75" s="307"/>
+      <c r="D75" s="308"/>
+      <c r="E75" s="309"/>
+      <c r="F75" s="310"/>
+      <c r="G75" s="311"/>
+      <c r="H75" s="312"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="313"/>
+      <c r="B76" s="314"/>
+      <c r="C76" s="315"/>
+      <c r="D76" s="316"/>
+      <c r="E76" s="317"/>
+      <c r="F76" s="318"/>
+      <c r="G76" s="319"/>
+      <c r="H76" s="320"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2925,7 +4495,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H61"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -2984,7 +4554,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -3125,7 +4695,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -3234,126 +4804,126 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="574"/>
+      <c r="A20" s="573"/>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="573"/>
+      <c r="A21" s="572"/>
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="572"/>
+      <c r="A22" s="571"/>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="571"/>
+      <c r="A23" s="570" t="s">
+        <v>72</v>
+      </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="569"/>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="568"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="567" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="566"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="565" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1196"/>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="570" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="569"/>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="568"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="567" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="566"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="565" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
+      <c r="G29" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30">
@@ -3510,267 +5080,258 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="556"/>
+      <c r="A38" s="1198"/>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1197"/>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
         <v>45</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>86</v>
       </c>
-      <c r="E38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="555"/>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="554"/>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="A40" s="540" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="539"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1199"/>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
         <v>13</v>
       </c>
-      <c r="G40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="600"/>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="540" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="43">
-      <c r="A43" s="539"/>
+      <c r="A43" s="538"/>
     </row>
     <row r="44">
-      <c r="A44" s="538"/>
+      <c r="A44" s="329"/>
+      <c r="B44" s="330"/>
+      <c r="C44" s="331"/>
+      <c r="D44" s="332"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="335"/>
+      <c r="H44" s="336"/>
     </row>
     <row r="45">
-      <c r="A45" s="329"/>
-      <c r="B45" s="330"/>
-      <c r="C45" s="331"/>
-      <c r="D45" s="332"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="335"/>
-      <c r="H45" s="336"/>
+      <c r="A45" s="337"/>
+      <c r="B45" s="338"/>
+      <c r="C45" s="339"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="341"/>
+      <c r="F45" s="342"/>
+      <c r="G45" s="343"/>
+      <c r="H45" s="344"/>
     </row>
     <row r="46">
-      <c r="A46" s="337"/>
-      <c r="B46" s="338"/>
-      <c r="C46" s="339"/>
-      <c r="D46" s="340"/>
-      <c r="E46" s="341"/>
-      <c r="F46" s="342"/>
-      <c r="G46" s="343"/>
-      <c r="H46" s="344"/>
+      <c r="A46" s="345"/>
+      <c r="B46" s="346"/>
+      <c r="C46" s="347"/>
+      <c r="D46" s="348"/>
+      <c r="E46" s="349"/>
+      <c r="F46" s="350"/>
+      <c r="G46" s="351"/>
+      <c r="H46" s="352"/>
     </row>
     <row r="47">
-      <c r="A47" s="345"/>
-      <c r="B47" s="346"/>
-      <c r="C47" s="347"/>
-      <c r="D47" s="348"/>
-      <c r="E47" s="349"/>
-      <c r="F47" s="350"/>
-      <c r="G47" s="351"/>
-      <c r="H47" s="352"/>
+      <c r="A47" s="353"/>
+      <c r="B47" s="354"/>
+      <c r="C47" s="355"/>
+      <c r="D47" s="356"/>
+      <c r="E47" s="357"/>
+      <c r="F47" s="358"/>
+      <c r="G47" s="359"/>
+      <c r="H47" s="360"/>
     </row>
     <row r="48">
-      <c r="A48" s="353"/>
-      <c r="B48" s="354"/>
-      <c r="C48" s="355"/>
-      <c r="D48" s="356"/>
-      <c r="E48" s="357"/>
-      <c r="F48" s="358"/>
-      <c r="G48" s="359"/>
-      <c r="H48" s="360"/>
+      <c r="A48" s="369"/>
+      <c r="B48" s="370"/>
+      <c r="C48" s="371"/>
+      <c r="D48" s="372"/>
+      <c r="E48" s="373"/>
+      <c r="F48" s="374"/>
+      <c r="G48" s="375"/>
+      <c r="H48" s="376"/>
     </row>
     <row r="49">
-      <c r="A49" s="369"/>
-      <c r="B49" s="370"/>
-      <c r="C49" s="371"/>
-      <c r="D49" s="372"/>
-      <c r="E49" s="373"/>
-      <c r="F49" s="374"/>
-      <c r="G49" s="375"/>
-      <c r="H49" s="376"/>
+      <c r="A49" s="377"/>
+      <c r="B49" s="378"/>
+      <c r="C49" s="379"/>
+      <c r="D49" s="380"/>
+      <c r="E49" s="381"/>
+      <c r="F49" s="382"/>
+      <c r="G49" s="383"/>
+      <c r="H49" s="384"/>
     </row>
     <row r="50">
-      <c r="A50" s="377"/>
-      <c r="B50" s="378"/>
-      <c r="C50" s="379"/>
-      <c r="D50" s="380"/>
-      <c r="E50" s="381"/>
-      <c r="F50" s="382"/>
-      <c r="G50" s="383"/>
-      <c r="H50" s="384"/>
+      <c r="A50" s="385"/>
+      <c r="B50" s="386"/>
+      <c r="C50" s="387"/>
+      <c r="D50" s="388"/>
+      <c r="E50" s="389"/>
+      <c r="F50" s="390"/>
+      <c r="G50" s="391"/>
+      <c r="H50" s="392"/>
     </row>
     <row r="51">
-      <c r="A51" s="385"/>
-      <c r="B51" s="386"/>
-      <c r="C51" s="387"/>
-      <c r="D51" s="388"/>
-      <c r="E51" s="389"/>
-      <c r="F51" s="390"/>
-      <c r="G51" s="391"/>
-      <c r="H51" s="392"/>
+      <c r="A51" s="393"/>
+      <c r="B51" s="394"/>
+      <c r="C51" s="395"/>
+      <c r="D51" s="396"/>
+      <c r="E51" s="397"/>
+      <c r="F51" s="398"/>
+      <c r="G51" s="399"/>
+      <c r="H51" s="400"/>
     </row>
     <row r="52">
-      <c r="A52" s="393"/>
-      <c r="B52" s="394"/>
-      <c r="C52" s="395"/>
-      <c r="D52" s="396"/>
-      <c r="E52" s="397"/>
-      <c r="F52" s="398"/>
-      <c r="G52" s="399"/>
-      <c r="H52" s="400"/>
+      <c r="A52" s="401"/>
+      <c r="B52" s="402"/>
+      <c r="C52" s="403"/>
+      <c r="D52" s="404"/>
+      <c r="E52" s="405"/>
+      <c r="F52" s="406"/>
+      <c r="G52" s="407"/>
+      <c r="H52" s="408"/>
     </row>
     <row r="53">
-      <c r="A53" s="401"/>
-      <c r="B53" s="402"/>
-      <c r="C53" s="403"/>
-      <c r="D53" s="404"/>
-      <c r="E53" s="405"/>
-      <c r="F53" s="406"/>
-      <c r="G53" s="407"/>
-      <c r="H53" s="408"/>
+      <c r="A53" s="409"/>
+      <c r="B53" s="410"/>
+      <c r="C53" s="411"/>
+      <c r="D53" s="412"/>
+      <c r="E53" s="413"/>
+      <c r="F53" s="414"/>
+      <c r="G53" s="415"/>
+      <c r="H53" s="416"/>
     </row>
     <row r="54">
-      <c r="A54" s="409"/>
-      <c r="B54" s="410"/>
-      <c r="C54" s="411"/>
-      <c r="D54" s="412"/>
-      <c r="E54" s="413"/>
-      <c r="F54" s="414"/>
-      <c r="G54" s="415"/>
-      <c r="H54" s="416"/>
+      <c r="A54" s="417"/>
+      <c r="B54" s="418"/>
+      <c r="C54" s="419"/>
+      <c r="D54" s="420"/>
+      <c r="E54" s="421"/>
+      <c r="F54" s="422"/>
+      <c r="G54" s="423"/>
+      <c r="H54" s="424"/>
     </row>
     <row r="55">
-      <c r="A55" s="417"/>
-      <c r="B55" s="418"/>
-      <c r="C55" s="419"/>
-      <c r="D55" s="420"/>
-      <c r="E55" s="421"/>
-      <c r="F55" s="422"/>
-      <c r="G55" s="423"/>
-      <c r="H55" s="424"/>
+      <c r="A55" s="425"/>
+      <c r="B55" s="426"/>
+      <c r="C55" s="427"/>
+      <c r="D55" s="428"/>
+      <c r="E55" s="429"/>
+      <c r="F55" s="430"/>
+      <c r="G55" s="431"/>
+      <c r="H55" s="432"/>
     </row>
     <row r="56">
-      <c r="A56" s="425"/>
-      <c r="B56" s="426"/>
-      <c r="C56" s="427"/>
-      <c r="D56" s="428"/>
-      <c r="E56" s="429"/>
-      <c r="F56" s="430"/>
-      <c r="G56" s="431"/>
-      <c r="H56" s="432"/>
+      <c r="A56" s="433"/>
+      <c r="B56" s="434"/>
+      <c r="C56" s="435"/>
+      <c r="D56" s="436"/>
+      <c r="E56" s="437"/>
+      <c r="F56" s="438"/>
+      <c r="G56" s="439"/>
+      <c r="H56" s="440"/>
     </row>
     <row r="57">
-      <c r="A57" s="433"/>
-      <c r="B57" s="434"/>
-      <c r="C57" s="435"/>
-      <c r="D57" s="436"/>
-      <c r="E57" s="437"/>
-      <c r="F57" s="438"/>
-      <c r="G57" s="439"/>
-      <c r="H57" s="440"/>
+      <c r="A57" s="441"/>
+      <c r="B57" s="442"/>
+      <c r="C57" s="443"/>
+      <c r="D57" s="444"/>
+      <c r="E57" s="445"/>
+      <c r="F57" s="446"/>
+      <c r="G57" s="447"/>
+      <c r="H57" s="448"/>
     </row>
     <row r="58">
-      <c r="A58" s="441"/>
-      <c r="B58" s="442"/>
-      <c r="C58" s="443"/>
-      <c r="D58" s="444"/>
-      <c r="E58" s="445"/>
-      <c r="F58" s="446"/>
-      <c r="G58" s="447"/>
-      <c r="H58" s="448"/>
+      <c r="A58" s="449"/>
+      <c r="B58" s="450"/>
+      <c r="C58" s="451"/>
+      <c r="D58" s="452"/>
+      <c r="E58" s="453"/>
+      <c r="F58" s="454"/>
+      <c r="G58" s="455"/>
+      <c r="H58" s="456"/>
     </row>
     <row r="59">
-      <c r="A59" s="449"/>
-      <c r="B59" s="450"/>
-      <c r="C59" s="451"/>
-      <c r="D59" s="452"/>
-      <c r="E59" s="453"/>
-      <c r="F59" s="454"/>
-      <c r="G59" s="455"/>
-      <c r="H59" s="456"/>
+      <c r="A59" s="457"/>
+      <c r="B59" s="458"/>
+      <c r="C59" s="459"/>
+      <c r="D59" s="460"/>
+      <c r="E59" s="461"/>
+      <c r="F59" s="462"/>
+      <c r="G59" s="463"/>
+      <c r="H59" s="464"/>
     </row>
     <row r="60">
-      <c r="A60" s="457"/>
-      <c r="B60" s="458"/>
-      <c r="C60" s="459"/>
-      <c r="D60" s="460"/>
-      <c r="E60" s="461"/>
-      <c r="F60" s="462"/>
-      <c r="G60" s="463"/>
-      <c r="H60" s="464"/>
+      <c r="A60" s="465"/>
+      <c r="B60" s="466"/>
+      <c r="C60" s="467"/>
+      <c r="D60" s="468"/>
+      <c r="E60" s="469"/>
+      <c r="F60" s="470"/>
+      <c r="G60" s="471"/>
+      <c r="H60" s="472"/>
     </row>
     <row r="61">
-      <c r="A61" s="465"/>
-      <c r="B61" s="466"/>
-      <c r="C61" s="467"/>
-      <c r="D61" s="468"/>
-      <c r="E61" s="469"/>
-      <c r="F61" s="470"/>
-      <c r="G61" s="471"/>
-      <c r="H61" s="472"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="473"/>
-      <c r="B62" s="474"/>
-      <c r="C62" s="475"/>
-      <c r="D62" s="476"/>
-      <c r="E62" s="477"/>
-      <c r="F62" s="478"/>
-      <c r="G62" s="479"/>
-      <c r="H62" s="480"/>
+      <c r="A61" s="473"/>
+      <c r="B61" s="474"/>
+      <c r="C61" s="475"/>
+      <c r="D61" s="476"/>
+      <c r="E61" s="477"/>
+      <c r="F61" s="478"/>
+      <c r="G61" s="479"/>
+      <c r="H61" s="480"/>
     </row>
   </sheetData>
 </worksheet>
